--- a/Project_Plan/project-management-template.xlsx
+++ b/Project_Plan/project-management-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longdv3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LongDV3\Documents\udacitycicd\Project_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -107,12 +107,42 @@
   <si>
     <t>Deploy on Azure</t>
   </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Q2 plan</t>
+  </si>
+  <si>
+    <t>Set up and implement logic for project</t>
+  </si>
+  <si>
+    <t>Q3 plan</t>
+  </si>
+  <si>
+    <t>Release project and Deploy on Azure.</t>
+  </si>
+  <si>
+    <t>Yearyly plan</t>
+  </si>
+  <si>
+    <t>Refactor and migrate code. Implement new future and maintenance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -143,6 +173,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -181,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -193,6 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,14 +451,15 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="6"/>
-    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
@@ -432,10 +470,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -465,11 +507,15 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -499,11 +545,15 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -533,11 +583,15 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -567,11 +621,15 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -598,11 +656,12 @@
       <c r="A6" s="6">
         <v>45096</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -632,11 +691,15 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -666,7 +729,9 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -694,11 +759,12 @@
       <c r="A9" s="6">
         <v>45117</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -728,7 +794,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -756,11 +824,12 @@
       <c r="A11" s="6">
         <v>45131</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -790,11 +859,15 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -824,11 +897,15 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -856,10 +933,10 @@
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -887,10 +964,9 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -918,10 +994,9 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -949,10 +1024,9 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -981,10 +1055,9 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1067,8 +1140,12 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1095,8 +1172,12 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1151,8 +1232,12 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
